--- a/proyecciones.xlsx
+++ b/proyecciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA822E-BC0A-4DBC-B0D5-7EFBDAB6A9C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC277D1-4E39-4B74-87A4-859FDC5833A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="0" windowWidth="14100" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Present" sheetId="1" r:id="rId1"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>78.271020000000007</v>
       </c>
       <c r="G2" s="1">
-        <f>B2*F2</f>
+        <f t="shared" ref="G2:G11" si="0">B2*F2</f>
         <v>234.81306000000001</v>
       </c>
       <c r="H2" s="4">
@@ -735,7 +735,7 @@
         <v>81.671019999999999</v>
       </c>
       <c r="I2" s="1">
-        <f>B2*H2</f>
+        <f t="shared" ref="I2:I11" si="1">B2*H2</f>
         <v>245.01306</v>
       </c>
       <c r="J2" s="5">
@@ -743,7 +743,7 @@
         <v>85.071020000000004</v>
       </c>
       <c r="K2">
-        <f>B2*J2</f>
+        <f t="shared" ref="K2:K11" si="2">B2*J2</f>
         <v>255.21306000000001</v>
       </c>
     </row>
@@ -771,15 +771,15 @@
         <v>94.166666666666657</v>
       </c>
       <c r="G3" s="1">
-        <f>B3*F3</f>
+        <f t="shared" si="0"/>
         <v>282.5</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H11" si="0">AVERAGE(F3,J3)</f>
+        <f t="shared" ref="H3:H11" si="3">AVERAGE(F3,J3)</f>
         <v>94.166666666666657</v>
       </c>
       <c r="I3" s="1">
-        <f>B3*H3</f>
+        <f t="shared" si="1"/>
         <v>282.5</v>
       </c>
       <c r="J3" s="5">
@@ -787,7 +787,7 @@
         <v>94.166666666666657</v>
       </c>
       <c r="K3">
-        <f>B3*J3</f>
+        <f t="shared" si="2"/>
         <v>282.5</v>
       </c>
     </row>
@@ -805,22 +805,22 @@
         <v>95</v>
       </c>
       <c r="G4" s="1">
-        <f>B4*F4</f>
+        <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
       <c r="I4" s="1">
-        <f>B4*H4</f>
+        <f t="shared" si="1"/>
         <v>146.25</v>
       </c>
       <c r="J4" s="5">
         <v>100</v>
       </c>
       <c r="K4">
-        <f>B4*J4</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -848,15 +848,15 @@
         <v>70.08</v>
       </c>
       <c r="G5" s="1">
-        <f>B5*F5</f>
+        <f t="shared" si="0"/>
         <v>210.24</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>74.08</v>
       </c>
       <c r="I5" s="1">
-        <f>B5*H5</f>
+        <f t="shared" si="1"/>
         <v>222.24</v>
       </c>
       <c r="J5" s="5">
@@ -864,7 +864,7 @@
         <v>78.08</v>
       </c>
       <c r="K5">
-        <f>B5*J5</f>
+        <f t="shared" si="2"/>
         <v>234.24</v>
       </c>
     </row>
@@ -891,15 +891,15 @@
         <v>68.849999999999994</v>
       </c>
       <c r="G6" s="1">
-        <f>B6*F6</f>
+        <f t="shared" si="0"/>
         <v>206.54999999999998</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>73.650000000000006</v>
       </c>
       <c r="I6" s="1">
-        <f>B6*H6</f>
+        <f t="shared" si="1"/>
         <v>220.95000000000002</v>
       </c>
       <c r="J6" s="5">
@@ -907,7 +907,7 @@
         <v>78.45</v>
       </c>
       <c r="K6">
-        <f>B6*J6</f>
+        <f t="shared" si="2"/>
         <v>235.35000000000002</v>
       </c>
     </row>
@@ -925,22 +925,22 @@
         <v>95</v>
       </c>
       <c r="G7" s="1">
-        <f>B7*F7</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
       <c r="I7" s="1">
-        <f>B7*H7</f>
+        <f t="shared" si="1"/>
         <v>292.5</v>
       </c>
       <c r="J7" s="5">
         <v>100</v>
       </c>
       <c r="K7">
-        <f>B7*J7</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
@@ -967,15 +967,15 @@
         <v>71.13</v>
       </c>
       <c r="G8" s="1">
-        <f>B8*F8</f>
+        <f t="shared" si="0"/>
         <v>106.69499999999999</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>72.38</v>
       </c>
       <c r="I8" s="1">
-        <f>B8*H8</f>
+        <f t="shared" si="1"/>
         <v>108.57</v>
       </c>
       <c r="J8" s="5">
@@ -983,7 +983,7 @@
         <v>73.63</v>
       </c>
       <c r="K8">
-        <f>B8*J8</f>
+        <f t="shared" si="2"/>
         <v>110.44499999999999</v>
       </c>
     </row>
@@ -1010,15 +1010,15 @@
         <v>94</v>
       </c>
       <c r="G9" s="1">
-        <f>B9*F9</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="I9" s="1">
-        <f>B9*H9</f>
+        <f t="shared" si="1"/>
         <v>288</v>
       </c>
       <c r="J9" s="5">
@@ -1026,7 +1026,7 @@
         <v>98</v>
       </c>
       <c r="K9">
-        <f>B9*J9</f>
+        <f t="shared" si="2"/>
         <v>294</v>
       </c>
     </row>
@@ -1053,15 +1053,15 @@
         <v>91</v>
       </c>
       <c r="G10" s="1">
-        <f>B10*F10</f>
+        <f t="shared" si="0"/>
         <v>273</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>93.4</v>
       </c>
       <c r="I10" s="1">
-        <f>B10*H10</f>
+        <f t="shared" si="1"/>
         <v>280.20000000000005</v>
       </c>
       <c r="J10" s="5">
@@ -1069,7 +1069,7 @@
         <v>95.800000000000011</v>
       </c>
       <c r="K10">
-        <f>B10*J10</f>
+        <f t="shared" si="2"/>
         <v>287.40000000000003</v>
       </c>
     </row>
@@ -1093,22 +1093,22 @@
         <v>87</v>
       </c>
       <c r="G11" s="1">
-        <f>B11*F11</f>
+        <f t="shared" si="0"/>
         <v>261</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="I11" s="1">
-        <f>B11*H11</f>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="J11" s="5">
         <v>87</v>
       </c>
       <c r="K11">
-        <f>B11*J11</f>
+        <f t="shared" si="2"/>
         <v>261</v>
       </c>
     </row>
@@ -1274,27 +1274,27 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <f>C2+D2</f>
+        <f t="shared" ref="F2:F9" si="0">C2+D2</f>
         <v>90</v>
       </c>
       <c r="G2">
-        <f>B2*F2</f>
+        <f t="shared" ref="G2:G9" si="1">B2*F2</f>
         <v>270</v>
       </c>
       <c r="H2">
-        <f>AVERAGE(F2,J2)</f>
+        <f t="shared" ref="H2:H9" si="2">AVERAGE(F2,J2)</f>
         <v>92.5</v>
       </c>
       <c r="I2">
-        <f>B2*H2</f>
+        <f t="shared" ref="I2:I9" si="3">B2*H2</f>
         <v>277.5</v>
       </c>
       <c r="J2">
-        <f>C2+E2</f>
+        <f t="shared" ref="J2:J9" si="4">C2+E2</f>
         <v>95</v>
       </c>
       <c r="K2">
-        <f>B2*J2</f>
+        <f t="shared" ref="K2:K9" si="5">B2*J2</f>
         <v>285</v>
       </c>
     </row>
@@ -1312,31 +1312,31 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">(100/100)*40</f>
+        <f t="shared" ref="E3:E9" si="6">(100/100)*40</f>
         <v>40</v>
       </c>
       <c r="F3">
-        <f>C3+D3</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="G3">
-        <f>B3*F3</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(F3,J3)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I3">
-        <f>B3*H3</f>
+        <f t="shared" si="3"/>
         <v>277.5</v>
       </c>
       <c r="J3">
-        <f>C3+E3</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K3">
-        <f>B3*J3</f>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
     </row>
@@ -1354,31 +1354,31 @@
         <v>35</v>
       </c>
       <c r="E4">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <f>C4+D4</f>
         <v>90</v>
       </c>
       <c r="G4">
-        <f>B4*F4</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(F4,J4)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I4">
-        <f>B4*H4</f>
+        <f t="shared" si="3"/>
         <v>277.5</v>
       </c>
       <c r="J4">
-        <f>C4+E4</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K4">
-        <f>B4*J4</f>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
     </row>
@@ -1396,31 +1396,31 @@
         <v>35</v>
       </c>
       <c r="E5">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <f>C5+D5</f>
         <v>90</v>
       </c>
       <c r="G5">
-        <f>B5*F5</f>
+        <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
       <c r="H5">
-        <f>AVERAGE(F5,J5)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I5">
-        <f>B5*H5</f>
+        <f t="shared" si="3"/>
         <v>69.375</v>
       </c>
       <c r="J5">
-        <f>C5+E5</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K5">
-        <f>B5*J5</f>
+        <f t="shared" si="5"/>
         <v>71.25</v>
       </c>
     </row>
@@ -1438,31 +1438,31 @@
         <v>35</v>
       </c>
       <c r="E6">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <f>C6+D6</f>
         <v>90</v>
       </c>
       <c r="G6">
-        <f>B6*F6</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="H6">
-        <f>AVERAGE(F6,J6)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I6">
-        <f>B6*H6</f>
+        <f t="shared" si="3"/>
         <v>277.5</v>
       </c>
       <c r="J6">
-        <f>C6+E6</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K6">
-        <f>B6*J6</f>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
     </row>
@@ -1480,31 +1480,31 @@
         <v>35</v>
       </c>
       <c r="E7">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <f>C7+D7</f>
         <v>90</v>
       </c>
       <c r="G7">
-        <f>B7*F7</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="H7">
-        <f>AVERAGE(F7,J7)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I7">
-        <f>B7*H7</f>
+        <f t="shared" si="3"/>
         <v>277.5</v>
       </c>
       <c r="J7">
-        <f>C7+E7</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K7">
-        <f>B7*J7</f>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
     </row>
@@ -1522,31 +1522,31 @@
         <v>35</v>
       </c>
       <c r="E8">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <f>C8+D8</f>
         <v>90</v>
       </c>
       <c r="G8">
-        <f>B8*F8</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="H8">
-        <f>AVERAGE(F8,J8)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I8">
-        <f>B8*H8</f>
+        <f t="shared" si="3"/>
         <v>277.5</v>
       </c>
       <c r="J8">
-        <f>C8+E8</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K8">
-        <f>B8*J8</f>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
     </row>
@@ -1564,31 +1564,31 @@
         <v>35</v>
       </c>
       <c r="E9">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <f>C9+D9</f>
         <v>90</v>
       </c>
       <c r="G9">
-        <f>B9*F9</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="H9">
-        <f>AVERAGE(F9,J9)</f>
+        <f t="shared" si="2"/>
         <v>92.5</v>
       </c>
       <c r="I9">
-        <f>B9*H9</f>
+        <f t="shared" si="3"/>
         <v>277.5</v>
       </c>
       <c r="J9">
-        <f>C9+E9</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="K9">
-        <f>B9*J9</f>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
     </row>
@@ -1710,27 +1710,27 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F23" si="1">C17+D17</f>
+        <f t="shared" ref="F17:F23" si="7">C17+D17</f>
         <v>90</v>
       </c>
       <c r="G17">
-        <f t="shared" ref="G17:G23" si="2">B17*F17</f>
+        <f t="shared" ref="G17:G23" si="8">B17*F17</f>
         <v>270</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H23" si="3">AVERAGE(F17,J17)</f>
+        <f t="shared" ref="H17:H23" si="9">AVERAGE(F17,J17)</f>
         <v>92.5</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I23" si="4">B17*H17</f>
+        <f t="shared" ref="I17:I23" si="10">B17*H17</f>
         <v>277.5</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:J23" si="5">C17+E17</f>
+        <f t="shared" ref="J17:J23" si="11">C17+E17</f>
         <v>95</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K23" si="6">B17*J17</f>
+        <f t="shared" ref="K17:K23" si="12">B17*J17</f>
         <v>285</v>
       </c>
     </row>
@@ -1751,27 +1751,27 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>277.5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
@@ -1792,27 +1792,27 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>277.5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
@@ -1833,27 +1833,27 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>277.5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
@@ -1874,27 +1874,27 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>277.5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
@@ -1915,27 +1915,27 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>277.5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
@@ -1956,27 +1956,27 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>92.5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>277.5</v>
       </c>
       <c r="J23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="K23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>285</v>
       </c>
     </row>
